--- a/Data/combined_data.xlsx
+++ b/Data/combined_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -658,12 +658,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2238,12 +2238,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2830,12 +2830,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3126,12 +3126,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3718,12 +3718,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4014,12 +4014,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4162,12 +4162,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -4310,12 +4310,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4754,12 +4754,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6038,12 +6038,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6186,12 +6186,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6482,12 +6482,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -6630,12 +6630,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6778,12 +6778,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -7072,12 +7072,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -7220,12 +7220,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -7352,12 +7352,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7500,12 +7500,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -7780,12 +7780,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -8192,12 +8192,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -8472,12 +8472,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -8620,12 +8620,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -8916,12 +8916,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -9492,12 +9492,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -9640,12 +9640,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -9920,12 +9920,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -10052,12 +10052,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -10200,12 +10200,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -10348,12 +10348,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -10496,12 +10496,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -10776,12 +10776,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -10924,12 +10924,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -11056,12 +11056,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -11204,12 +11204,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -11484,12 +11484,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -11632,12 +11632,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -11928,12 +11928,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -12076,12 +12076,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -12208,12 +12208,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -12340,12 +12340,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -12488,12 +12488,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -12620,12 +12620,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -12752,12 +12752,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -12900,12 +12900,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -13048,12 +13048,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -13196,12 +13196,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -13328,12 +13328,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -13476,12 +13476,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -13624,12 +13624,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -13904,12 +13904,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -14052,12 +14052,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -14200,12 +14200,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -14332,12 +14332,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -14480,12 +14480,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -14628,12 +14628,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -14776,12 +14776,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -14924,12 +14924,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -15056,12 +15056,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -15352,12 +15352,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -15484,12 +15484,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -15632,12 +15632,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -15764,12 +15764,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -15912,12 +15912,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -16060,12 +16060,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -16208,12 +16208,12 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -16356,12 +16356,12 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -16504,12 +16504,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -16652,12 +16652,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -16784,12 +16784,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -16932,12 +16932,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -17064,12 +17064,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -17212,12 +17212,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -17360,12 +17360,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -17496,12 +17496,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -17644,12 +17644,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -17792,12 +17792,12 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -17940,12 +17940,12 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -18088,12 +18088,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -18236,12 +18236,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -18384,12 +18384,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -18532,12 +18532,12 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -18680,12 +18680,12 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -18828,12 +18828,12 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -18976,12 +18976,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -19272,12 +19272,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -19384,12 +19384,12 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -19532,12 +19532,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -19680,12 +19680,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -19828,12 +19828,12 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -19976,12 +19976,12 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -20124,12 +20124,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -20272,12 +20272,12 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -20568,12 +20568,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -20716,12 +20716,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -20864,12 +20864,12 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -21144,12 +21144,12 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -21292,12 +21292,12 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -21440,12 +21440,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -21588,12 +21588,12 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -21736,12 +21736,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -21868,12 +21868,12 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -22016,12 +22016,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -22164,12 +22164,12 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -22310,12 +22310,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -22458,12 +22458,12 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -22590,12 +22590,12 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -22722,12 +22722,12 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -22854,12 +22854,12 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -22986,12 +22986,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -23134,12 +23134,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -23282,12 +23282,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -23414,12 +23414,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -23562,12 +23562,12 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -23710,12 +23710,12 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -23842,12 +23842,12 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -23990,12 +23990,12 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -24138,12 +24138,12 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -24286,12 +24286,12 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -24434,12 +24434,12 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -24582,12 +24582,12 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -24730,12 +24730,12 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -24878,12 +24878,12 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -25026,12 +25026,12 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -25158,12 +25158,12 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -25290,12 +25290,12 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -25438,12 +25438,12 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -25586,12 +25586,12 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -25718,12 +25718,12 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -25850,12 +25850,12 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -25998,12 +25998,12 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -26146,12 +26146,12 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -26294,12 +26294,12 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -26442,12 +26442,12 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -26574,12 +26574,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -26722,12 +26722,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -26852,12 +26852,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -26984,12 +26984,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -27132,12 +27132,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -27280,12 +27280,12 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -27428,12 +27428,12 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -27576,12 +27576,12 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -27708,12 +27708,12 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -27854,12 +27854,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -28002,12 +28002,12 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -28150,12 +28150,12 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -28298,12 +28298,12 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -28446,12 +28446,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -28568,12 +28568,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -28716,12 +28716,12 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -28864,12 +28864,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -29012,12 +29012,12 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -29160,12 +29160,12 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -29308,12 +29308,12 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -29440,12 +29440,12 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -29572,12 +29572,12 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -29720,12 +29720,12 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -29868,12 +29868,12 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -30016,12 +30016,12 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -30162,12 +30162,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -30294,12 +30294,12 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -30442,12 +30442,12 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -30590,12 +30590,12 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -30738,12 +30738,12 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -30870,12 +30870,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -31018,12 +31018,12 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -31166,12 +31166,12 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -31314,12 +31314,12 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -31462,12 +31462,12 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -31610,12 +31610,12 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -31758,12 +31758,12 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -31906,12 +31906,12 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -32054,12 +32054,12 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -32186,12 +32186,12 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -32334,12 +32334,12 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -32482,12 +32482,12 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -32630,12 +32630,12 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -32778,12 +32778,12 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -32926,12 +32926,12 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -33074,12 +33074,12 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -33222,12 +33222,12 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -33370,12 +33370,12 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -33518,12 +33518,12 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -33666,12 +33666,12 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -33814,12 +33814,12 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -33946,12 +33946,12 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -34094,12 +34094,12 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -34242,12 +34242,12 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -34390,12 +34390,12 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -34538,12 +34538,12 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -34686,12 +34686,12 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -34834,12 +34834,12 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -34982,12 +34982,12 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -35130,12 +35130,12 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -35278,12 +35278,12 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -35426,12 +35426,12 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -35558,12 +35558,12 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -35706,12 +35706,12 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -35854,12 +35854,12 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -35986,12 +35986,12 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -36134,12 +36134,12 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -36282,12 +36282,12 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -36430,12 +36430,12 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -36578,12 +36578,12 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -36726,12 +36726,12 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -36874,12 +36874,12 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -37022,12 +37022,12 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -37170,12 +37170,12 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -37318,12 +37318,12 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -37466,12 +37466,12 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -37598,12 +37598,12 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -37746,12 +37746,12 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -37894,12 +37894,12 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -38042,12 +38042,12 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -38190,12 +38190,12 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -38338,12 +38338,12 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -38486,12 +38486,12 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -38618,12 +38618,12 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -38766,12 +38766,12 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -38914,12 +38914,12 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -39046,12 +39046,12 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -39178,12 +39178,12 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -39310,12 +39310,12 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -39458,12 +39458,12 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -39606,12 +39606,12 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -39754,12 +39754,12 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -39874,12 +39874,12 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -40022,12 +40022,12 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -40154,12 +40154,12 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -40302,12 +40302,12 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -40450,12 +40450,12 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -40582,12 +40582,12 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -40728,12 +40728,12 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -40874,12 +40874,12 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -41020,12 +41020,12 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -41168,12 +41168,12 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -41316,12 +41316,12 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -41464,12 +41464,12 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -41612,12 +41612,12 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -41760,12 +41760,12 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -41908,12 +41908,12 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -42040,12 +42040,12 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -42188,12 +42188,12 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -42320,12 +42320,12 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -42468,12 +42468,12 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -42600,12 +42600,12 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -42748,12 +42748,12 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -42896,12 +42896,12 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -43044,12 +43044,12 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -43192,12 +43192,12 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -43340,12 +43340,12 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -43488,12 +43488,12 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -43636,12 +43636,12 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
@@ -43768,12 +43768,12 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -43916,12 +43916,12 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -44048,12 +44048,12 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -44180,12 +44180,12 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -44328,12 +44328,12 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -44476,12 +44476,12 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
@@ -44608,12 +44608,12 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -44756,12 +44756,12 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -44904,12 +44904,12 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -45052,12 +45052,12 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -45200,12 +45200,12 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -45348,12 +45348,12 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -45480,12 +45480,12 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -45628,12 +45628,12 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
@@ -45776,12 +45776,12 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -45924,12 +45924,12 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -46072,12 +46072,12 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -46204,12 +46204,12 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -46352,12 +46352,12 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
@@ -46484,12 +46484,12 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -46632,12 +46632,12 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -46780,12 +46780,12 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -46912,12 +46912,12 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -47060,12 +47060,12 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -47208,12 +47208,12 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -47356,12 +47356,12 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -47504,12 +47504,12 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -47652,12 +47652,12 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -47800,12 +47800,12 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -47932,12 +47932,12 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -48064,12 +48064,12 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -48212,12 +48212,12 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -48360,12 +48360,12 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -48508,12 +48508,12 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -48656,12 +48656,12 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -48804,12 +48804,12 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -48952,12 +48952,12 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -49100,12 +49100,12 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -49248,12 +49248,12 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
@@ -49380,12 +49380,12 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -49528,12 +49528,12 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -49676,12 +49676,12 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -49808,12 +49808,12 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -49956,12 +49956,12 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -50088,12 +50088,12 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -50220,12 +50220,12 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -50368,12 +50368,12 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -50516,12 +50516,12 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -50664,12 +50664,12 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
@@ -50812,12 +50812,12 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
@@ -50960,12 +50960,12 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -51108,12 +51108,12 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -51256,12 +51256,12 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
@@ -51388,12 +51388,12 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
@@ -51520,12 +51520,12 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -51668,12 +51668,12 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
@@ -51816,12 +51816,12 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -51948,12 +51948,12 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -52096,12 +52096,12 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
@@ -52228,12 +52228,12 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -52360,12 +52360,12 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -52492,12 +52492,12 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -52640,12 +52640,12 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -52788,12 +52788,12 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -52920,12 +52920,12 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
@@ -53068,12 +53068,12 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -53216,12 +53216,12 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -53348,12 +53348,12 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
@@ -53496,12 +53496,12 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -53644,12 +53644,12 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
@@ -53792,12 +53792,12 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
@@ -53940,12 +53940,12 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
@@ -54088,12 +54088,12 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
@@ -54236,12 +54236,12 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -54384,12 +54384,12 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -54532,12 +54532,12 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
@@ -54664,12 +54664,12 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -54812,12 +54812,12 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
@@ -54960,12 +54960,12 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
@@ -55108,12 +55108,12 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
@@ -55256,12 +55256,12 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
@@ -55404,12 +55404,12 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
@@ -55552,12 +55552,12 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -55684,12 +55684,12 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -55832,12 +55832,12 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
@@ -55980,12 +55980,12 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -56128,12 +56128,12 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -56276,12 +56276,12 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -56408,12 +56408,12 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -56556,12 +56556,12 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
@@ -56704,12 +56704,12 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
@@ -56836,12 +56836,12 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -56984,12 +56984,12 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -57132,12 +57132,12 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
@@ -57280,12 +57280,12 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -57428,12 +57428,12 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -57576,12 +57576,12 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -57724,12 +57724,12 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -57856,12 +57856,12 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -57988,12 +57988,12 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M400" t="inlineStr">

--- a/Data/combined_data.xlsx
+++ b/Data/combined_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -615,12 +615,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -739,12 +739,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -863,12 +863,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -987,12 +987,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2715,12 +2715,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -3703,12 +3703,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -4567,12 +4567,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -4811,12 +4811,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -5425,12 +5425,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -5549,12 +5549,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -6037,12 +6037,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -6281,12 +6281,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -6405,12 +6405,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -6777,12 +6777,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -7145,12 +7145,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -7269,12 +7269,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -7393,12 +7393,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -7517,12 +7517,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -7637,12 +7637,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -7885,12 +7885,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -8249,12 +8249,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -8373,12 +8373,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -8745,12 +8745,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -8869,12 +8869,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -8993,12 +8993,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -9117,12 +9117,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -9241,12 +9241,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -9365,12 +9365,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -9489,12 +9489,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -9613,12 +9613,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -9861,12 +9861,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -9985,12 +9985,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -10109,12 +10109,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -10229,12 +10229,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -10349,12 +10349,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -10597,12 +10597,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -10721,12 +10721,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -10845,12 +10845,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -10969,12 +10969,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -11093,12 +11093,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -11217,12 +11217,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -11341,12 +11341,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -11451,12 +11451,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -11575,12 +11575,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -11699,12 +11699,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -11823,12 +11823,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -12191,12 +12191,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -12563,12 +12563,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -12811,12 +12811,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -12935,12 +12935,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -13059,12 +13059,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -13183,12 +13183,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -13303,12 +13303,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -13423,12 +13423,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -13543,12 +13543,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -13663,12 +13663,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -13783,12 +13783,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -14031,12 +14031,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -14155,12 +14155,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -14279,12 +14279,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -14399,12 +14399,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -14519,12 +14519,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -14643,12 +14643,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -14767,12 +14767,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -14891,12 +14891,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -15015,12 +15015,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -15137,12 +15137,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -15261,12 +15261,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -15385,12 +15385,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -15509,12 +15509,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -15633,12 +15633,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -15757,12 +15757,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -15881,12 +15881,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -16005,12 +16005,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -16129,12 +16129,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -16253,12 +16253,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -16377,12 +16377,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -16501,12 +16501,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -16625,12 +16625,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -16749,12 +16749,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -16873,12 +16873,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -16997,12 +16997,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -17121,12 +17121,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -17245,12 +17245,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -17369,12 +17369,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -17493,12 +17493,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -17617,12 +17617,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -17741,12 +17741,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -17865,12 +17865,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -17989,12 +17989,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -18113,12 +18113,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -18235,12 +18235,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -18359,12 +18359,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -18483,12 +18483,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -18607,12 +18607,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -18731,12 +18731,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -18825,12 +18825,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -19073,12 +19073,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -19197,12 +19197,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -19317,12 +19317,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -19441,12 +19441,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -19565,12 +19565,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -19689,12 +19689,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -19813,12 +19813,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -19931,12 +19931,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -20055,12 +20055,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -20179,12 +20179,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -20299,12 +20299,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -20423,12 +20423,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -20547,12 +20547,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -20671,12 +20671,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -20795,12 +20795,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -20919,12 +20919,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -21043,12 +21043,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -21167,12 +21167,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -21291,12 +21291,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -21415,12 +21415,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -21539,12 +21539,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -21663,12 +21663,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -21787,12 +21787,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -21907,12 +21907,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -22031,12 +22031,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -22155,12 +22155,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -22279,12 +22279,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -22399,12 +22399,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -22523,12 +22523,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -22647,12 +22647,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -22771,12 +22771,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -22895,12 +22895,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -23019,12 +23019,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -23139,12 +23139,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -23263,12 +23263,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -23387,12 +23387,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -23511,12 +23511,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -23635,12 +23635,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -23759,12 +23759,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -23879,12 +23879,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -24003,12 +24003,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -24127,12 +24127,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -24247,12 +24247,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -24371,12 +24371,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -24495,12 +24495,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -24619,12 +24619,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -24743,12 +24743,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -24867,12 +24867,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -24991,12 +24991,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -25115,12 +25115,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -25235,12 +25235,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H202" t="n">
@@ -25359,12 +25359,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -25483,12 +25483,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -25603,12 +25603,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -25723,12 +25723,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -25847,12 +25847,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H207" t="n">
@@ -25971,12 +25971,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -26095,12 +26095,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -26215,12 +26215,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -26339,12 +26339,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -26463,12 +26463,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H212" t="n">
@@ -26587,12 +26587,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -26707,12 +26707,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -26831,12 +26831,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -26955,12 +26955,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -27079,12 +27079,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -27197,12 +27197,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -27315,12 +27315,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H219" t="n">
@@ -27433,12 +27433,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -27553,12 +27553,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -27673,12 +27673,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -27797,12 +27797,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H223" t="n">
@@ -27921,12 +27921,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -28045,12 +28045,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -28169,12 +28169,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -28293,12 +28293,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -28417,12 +28417,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -28541,12 +28541,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H229" t="n">
@@ -28665,12 +28665,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -28789,12 +28789,12 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -28913,12 +28913,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -29037,12 +29037,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -29161,12 +29161,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H234" t="n">
@@ -29285,12 +29285,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -29409,12 +29409,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H236" t="n">
@@ -29533,12 +29533,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -29657,12 +29657,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -29781,12 +29781,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H239" t="n">
@@ -29905,12 +29905,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -30029,12 +30029,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H241" t="n">
@@ -30153,12 +30153,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -30277,12 +30277,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -30401,12 +30401,12 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H244" t="n">
@@ -30525,12 +30525,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -30649,12 +30649,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -30769,12 +30769,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -30893,12 +30893,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H248" t="n">
@@ -31017,12 +31017,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -31137,12 +31137,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -31261,12 +31261,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -31385,12 +31385,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -31509,12 +31509,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -31629,12 +31629,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -31753,12 +31753,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -31873,12 +31873,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -31997,12 +31997,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H257" t="n">
@@ -32117,12 +32117,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H258" t="n">
@@ -32241,12 +32241,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H259" t="n">
@@ -32361,12 +32361,12 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -32481,12 +32481,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H261" t="n">
@@ -32605,12 +32605,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -32729,12 +32729,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H263" t="n">
@@ -32849,12 +32849,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H264" t="n">
@@ -32973,12 +32973,12 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H265" t="n">
@@ -33097,12 +33097,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H266" t="n">
@@ -33221,12 +33221,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H267" t="n">
@@ -33345,12 +33345,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H268" t="n">
@@ -33469,12 +33469,12 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H269" t="n">
@@ -33593,12 +33593,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H270" t="n">
@@ -33717,12 +33717,12 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H271" t="n">
@@ -33841,12 +33841,12 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -33961,12 +33961,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H273" t="n">
@@ -34085,12 +34085,12 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -34205,12 +34205,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H275" t="n">
@@ -34329,12 +34329,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -34453,12 +34453,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -34573,12 +34573,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -34697,12 +34697,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H279" t="n">
@@ -34821,12 +34821,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H280" t="n">
@@ -34945,12 +34945,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H281" t="n">
@@ -35069,12 +35069,12 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H282" t="n">
@@ -35193,12 +35193,12 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H283" t="n">
@@ -35317,12 +35317,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H284" t="n">
@@ -35441,12 +35441,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -35565,12 +35565,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H286" t="n">
@@ -35689,12 +35689,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H287" t="n">
@@ -35813,12 +35813,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H288" t="n">
@@ -35937,12 +35937,12 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H289" t="n">
@@ -36061,12 +36061,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H290" t="n">
@@ -36185,12 +36185,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H291" t="n">
@@ -36309,12 +36309,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H292" t="n">
@@ -36433,12 +36433,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -36557,12 +36557,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H294" t="n">
@@ -36681,12 +36681,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H295" t="n">
@@ -36805,12 +36805,12 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H296" t="n">
@@ -36929,12 +36929,12 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -37053,12 +37053,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -37177,12 +37177,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H299" t="n">
@@ -37301,12 +37301,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H300" t="n">
@@ -37421,12 +37421,12 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H301" t="n">
@@ -37545,12 +37545,12 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H302" t="n">
@@ -37669,12 +37669,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H303" t="n">
@@ -37793,12 +37793,12 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H304" t="n">
@@ -37917,12 +37917,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H305" t="n">
@@ -38041,12 +38041,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H306" t="n">
@@ -38165,12 +38165,12 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H307" t="n">
